--- a/biology/Médecine/Lymphome_T_périphérique/Lymphome_T_périphérique.xlsx
+++ b/biology/Médecine/Lymphome_T_périphérique/Lymphome_T_périphérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lymphome_T_p%C3%A9riph%C3%A9rique</t>
+          <t>Lymphome_T_périphérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lymphome T périphérique est un type de lymphome non hodgkinien avec prolifération de lymphocytes T. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lymphome_T_p%C3%A9riph%C3%A9rique</t>
+          <t>Lymphome_T_périphérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une forme rare de lymphome, atteignant l'adulte vers 60 ans[1]. Il existe une atteinte extraganglionnaire dans plus de la moitié des cas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une forme rare de lymphome, atteignant l'adulte vers 60 ans. Il existe une atteinte extraganglionnaire dans plus de la moitié des cas.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lymphome_T_p%C3%A9riph%C3%A9rique</t>
+          <t>Lymphome_T_périphérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diagnostic et la prise en charge de la maladie a fait l'objet de la publication de recommandations. Celles de l'« European Society for Medical Oncology » datent de 2015[2], celles du « National Comprehensive Cancer Network » de 2016[3].
-Le traitement repose sur une chimiothérapie de type CHOP, avec, cependant, un taux important de rechutes[4]. Une transplantation de moelle osseuse autologue permet des rémissions, avec de nombreuses rechutes[5]. 
-Une version modifiée du CHOP comprenant du brentuximab védotine permet de doubler la durée de rémission par rapport à une chimiothérapie classique dans les formes dites « CD30 + »[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic et la prise en charge de la maladie a fait l'objet de la publication de recommandations. Celles de l'« European Society for Medical Oncology » datent de 2015, celles du « National Comprehensive Cancer Network » de 2016.
+Le traitement repose sur une chimiothérapie de type CHOP, avec, cependant, un taux important de rechutes. Une transplantation de moelle osseuse autologue permet des rémissions, avec de nombreuses rechutes. 
+Une version modifiée du CHOP comprenant du brentuximab védotine permet de doubler la durée de rémission par rapport à une chimiothérapie classique dans les formes dites « CD30 + ».
 </t>
         </is>
       </c>
